--- a/Bitcoio/Data/BitcoinDatePriceBRL.xlsx
+++ b/Bitcoio/Data/BitcoinDatePriceBRL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -133,6 +133,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -350,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5325"/>
+  <dimension ref="A1:B5334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5257" workbookViewId="0">
-      <selection activeCell="B5264" sqref="B5264"/>
+    <sheetView tabSelected="1" topLeftCell="A5323" workbookViewId="0">
+      <selection activeCell="D5334" sqref="D5334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42955,12 +42961,84 @@
         <v>553450</v>
       </c>
     </row>
-    <row r="5325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5325" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5325" s="7">
         <v>45700</v>
       </c>
       <c r="B5325" s="8">
         <v>558656</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5326" s="9">
+        <v>45701</v>
+      </c>
+      <c r="B5326" s="10">
+        <v>557139</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5327" s="9">
+        <v>45702</v>
+      </c>
+      <c r="B5327" s="10">
+        <v>556934</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5328" s="9">
+        <v>45703</v>
+      </c>
+      <c r="B5328" s="10">
+        <v>560852</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5329" s="9">
+        <v>45704</v>
+      </c>
+      <c r="B5329" s="10">
+        <v>554999</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5330" s="9">
+        <v>45705</v>
+      </c>
+      <c r="B5330" s="10">
+        <v>550742</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5331" s="9">
+        <v>45706</v>
+      </c>
+      <c r="B5331" s="10">
+        <v>545999</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5332" s="9">
+        <v>45707</v>
+      </c>
+      <c r="B5332" s="10">
+        <v>553359</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5333" s="9">
+        <v>45708</v>
+      </c>
+      <c r="B5333" s="10">
+        <v>561934</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5334" s="9">
+        <v>45709</v>
+      </c>
+      <c r="B5334" s="10">
+        <v>552269</v>
       </c>
     </row>
   </sheetData>
